--- a/04-DataFountain/00-CCF/02-企业非法集资风险预测/result.xlsx
+++ b/04-DataFountain/00-CCF/02-企业非法集资风险预测/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>处理方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,14 @@
   </si>
   <si>
     <t>线上F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79370604272 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>242列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -419,8 +427,31 @@
       <c r="C3" s="1">
         <v>0.99056500000000003</v>
       </c>
+      <c r="D3" s="1">
+        <v>0.5</v>
+      </c>
       <c r="E3" s="1">
         <v>0.79844999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.99018200000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.80533999999999994</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/04-DataFountain/00-CCF/02-企业非法集资风险预测/result.xlsx
+++ b/04-DataFountain/00-CCF/02-企业非法集资风险预测/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>处理方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,22 @@
   </si>
   <si>
     <t>242列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catboost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入统计特征和count编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只用count编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欺诈率特征</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -454,6 +470,56 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.84836699999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.84682800000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.84614400000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.84669799999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="1">
+        <v>0.84669799999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="1">
+        <v>0.84712399999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>0.84778600000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/04-DataFountain/00-CCF/02-企业非法集资风险预测/result.xlsx
+++ b/04-DataFountain/00-CCF/02-企业非法集资风险预测/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>处理方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,14 @@
   </si>
   <si>
     <t>欺诈率特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入tfidf特征，20个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,19 +404,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44135</v>
       </c>
@@ -439,7 +447,7 @@
         <v>0.77009225410000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C3" s="1">
         <v>0.99056500000000003</v>
       </c>
@@ -450,7 +458,7 @@
         <v>0.79844999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44136</v>
       </c>
@@ -470,7 +478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44153</v>
       </c>
@@ -480,8 +488,11 @@
       <c r="E7" s="1">
         <v>0.84836699999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>0.83503049618000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -489,7 +500,7 @@
         <v>0.84682800000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -497,7 +508,7 @@
         <v>0.84614400000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -505,19 +516,47 @@
         <v>0.84669799999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E11" s="1">
         <v>0.84669799999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E12" s="1">
         <v>0.84712399999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E13" s="1">
         <v>0.84778600000000004</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.83599736000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.85509599999999997</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.82798169295000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.85427200000000003</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.83587370542999995</v>
       </c>
     </row>
   </sheetData>

--- a/04-DataFountain/00-CCF/02-企业非法集资风险预测/result.xlsx
+++ b/04-DataFountain/00-CCF/02-企业非法集资风险预测/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>处理方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,13 @@
   </si>
   <si>
     <t>5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83527745587 </t>
+  </si>
+  <si>
+    <t>不用tfidf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -507,6 +514,9 @@
       <c r="E9" s="1">
         <v>0.84614400000000001</v>
       </c>
+      <c r="F9" s="1">
+        <v>0.82831055068000004</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
@@ -525,6 +535,9 @@
       <c r="E12" s="1">
         <v>0.84712399999999999</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E13" s="1">
@@ -557,6 +570,22 @@
       </c>
       <c r="F16" s="1">
         <v>0.83587370542999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.85232300000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="1">
+        <v>0.85289499999999996</v>
       </c>
     </row>
   </sheetData>

--- a/04-DataFountain/00-CCF/02-企业非法集资风险预测/result.xlsx
+++ b/04-DataFountain/00-CCF/02-企业非法集资风险预测/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>处理方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>不用tfidf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入均值编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,19 +415,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44135</v>
       </c>
@@ -454,7 +458,7 @@
         <v>0.77009225410000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <v>0.99056500000000003</v>
       </c>
@@ -465,7 +469,7 @@
         <v>0.79844999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44136</v>
       </c>
@@ -485,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44153</v>
       </c>
@@ -499,7 +503,7 @@
         <v>0.83503049618000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -507,7 +511,7 @@
         <v>0.84682800000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -518,7 +522,7 @@
         <v>0.82831055068000004</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -526,12 +530,12 @@
         <v>0.84669799999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11" s="1">
         <v>0.84669799999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" s="1">
         <v>0.84712399999999999</v>
       </c>
@@ -539,7 +543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" s="1">
         <v>0.84778600000000004</v>
       </c>
@@ -547,7 +551,7 @@
         <v>0.83599736000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44154</v>
       </c>
@@ -561,7 +565,7 @@
         <v>0.82798169295000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
@@ -572,7 +576,7 @@
         <v>0.83587370542999995</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44155</v>
       </c>
@@ -583,9 +587,39 @@
         <v>0.85232300000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E19" s="1">
         <v>0.85289499999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>44156</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.84090098910813005</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.84124429654999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.841129044451986</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.83442428482999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="1">
+        <v>0.84082796575580299</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.84051788382000003</v>
       </c>
     </row>
   </sheetData>

--- a/04-DataFountain/00-CCF/02-企业非法集资风险预测/result.xlsx
+++ b/04-DataFountain/00-CCF/02-企业非法集资风险预测/result.xlsx
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -622,6 +622,17 @@
         <v>0.84051788382000003</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>44157</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.84430300000000003</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.83157109674999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/04-DataFountain/00-CCF/02-企业非法集资风险预测/result.xlsx
+++ b/04-DataFountain/00-CCF/02-企业非法集资风险预测/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>处理方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,9 @@
   <si>
     <t>加入均值编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83744374017 </t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -633,6 +636,14 @@
         <v>0.83157109674999996</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="1">
+        <v>0.83801698306157102</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
